--- a/rtei/static/data/rtei_data_2018.xlsx
+++ b/rtei/static/data/rtei_data_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="All Questionnaires" sheetId="1" state="visible" r:id="rId2"/>
@@ -994,340 +994,340 @@
     <t xml:space="preserve">3.2.4 Response </t>
   </si>
   <si>
-    <t xml:space="preserve">3.3.1a.a Overall gross enrollment rate for primary schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1a.b For males</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1a.c For females</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1a.d In urban schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1a.e In rural schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1a.f For the lowest income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1a.g For the second income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1a.h For the middle income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1a.i For the fourth income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1a.j For the highest income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1a.k For students with Disabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1b.a Overall gross enrollment rate for secondary schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1b.b For males</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1b.c For females</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1b.d In urban schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1b.e In rural schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1b.f For the lowest income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1b.g For the second income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1b.h For the middle income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1b.i For the fourth income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1b.j For the highest income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1b.k For students with disabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1c.a Overall gross enrollment rate for technical and vocational training</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1c.b For males</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1c.c For females</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1c.d In urban schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1c.e In rural schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1c.f For the lowest income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1c.g For the second income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1c.h For the middle income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1c.i For the fourth income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1c.j For the highest income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1c.k For students with disabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1d.a Overall gross enrollment rate for tertiary schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1d.b For males</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1d.c For females</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1d.d In urban schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1d.e In rural schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1d.f For the lowest income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1d.g For the second income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1d.h For the middle income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1d.i For the fourth income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1d.j For the highest income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1d.k For students with disabilities</t>
+    <t xml:space="preserve">3.3.1aa Overall gross enrollment rate for primary schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1ab For males</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1ac For females</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1ad In urban schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1ae In rural schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1af For the lowest income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1ag For the second income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1ah For the middle income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1ai For the fourth income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1aj For the highest income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1ak For students with Disabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1ba Overall gross enrollment rate for secondary schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1bb For males</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1bc For females</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1bd In urban schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1be In rural schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1bf For the lowest income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1bg For the second income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1bh For the middle income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1bi For the fourth income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1bj For the highest income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1bk For students with disabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1ca Overall gross enrollment rate for technical and vocational training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1cb For males</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1cc For females</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1cd In urban schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1ce In rural schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1cf For the lowest income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1cg For the second income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1ch For the middle income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1ci For the fourth income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1cj For the highest income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1ck For students with disabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1da Overall gross enrollment rate for tertiary schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1db For males</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1dc For females</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1dd In urban schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1de In rural schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1df For the lowest income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1dg For the second income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1dh For the middle income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1di For the fourth income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1dj For the highest income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1dk For students with disabilities</t>
   </si>
   <si>
     <t xml:space="preserve">3.3.1 Year</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3.2a.a Overall net enrollment rate for primary schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.2a.b For males</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.2a.c For females</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.2a.d In urban schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.2a.e In rural schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.2a.f For the lowest income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.2a.g For the second income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.2a.h For the middle income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.2a.i For the fourth income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.2a.j For the highest income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.2a.k For students with Disabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.2b.a Overall net enrollment rate for secondary schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.2b.b For males</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.2b.c For females</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.2b.d In urban schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.2b.e In rural schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.2b.f For the lowest income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.2b.g For the second income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.2b.h For the middle income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.2b.i For the fourth income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.2b.j For the highest income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.2b.k For students with Disabilities</t>
+    <t xml:space="preserve">3.3.2aa Overall net enrollment rate for primary schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.2ab For males</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.2ac For females</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.2ad In urban schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.2ae In rural schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.2af For the lowest income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.2ag For the second income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.2ah For the middle income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.2ai For the fourth income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.2aj For the highest income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.2ak For students with Disabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.2ba Overall net enrollment rate for secondary schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.2bb For males</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.2bc For females</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.2bd In urban schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.2be In rural schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.2bf For the lowest income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.2bg For the second income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.2bh For the middle income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.2bi For the fourth income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.2bj For the highest income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.2bk For students with Disabilities</t>
   </si>
   <si>
     <t xml:space="preserve">3.3.2 Year </t>
   </si>
   <si>
-    <t xml:space="preserve">3.3.3a.a Overall completion rate for public primary schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3a.b For males</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3a.c For females</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3a.d In urban schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3a.e In rural schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3a.f For the lowest income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3a.g For the second income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3a.h For the middle income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3a.i For the fourth income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3a.j For the highest income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3a.k For students with Disabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3b.a Overall completion rate for public secondary schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3b.b For males</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3b.c For females</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3b.d In urban schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3b.e In rural schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3b.f For the lowest income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3b.g For the second income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3b.h For the middle income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3b.i For the fourth income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3b.j For the highest income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3b.k For students with Disabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3c.a Overall completion rate for public technical and vocational training program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3c.b For males</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3c.c For females</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3c.d In urban schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3c.e In rural schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3c.f For the lowest income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3c.g For the second income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3c.h For the middle income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3c.i For the fourth income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3c.j For the highest income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3c.k For students with Disabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3d.a Overall completion rate for public tertiary schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3d.b For males</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3d.c For females</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3d.d In urban schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3d.e In rural schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3d.f For the lowest income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3d.g For the second income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3d.h For the middle income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3d.i For the fourth income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3d.j For the highest income quintile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.3d.k For students with Disabilities</t>
+    <t xml:space="preserve">3.3.3aa Overall completion rate for public primary schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3ab For males</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3ac For females</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3ad In urban schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3ae In rural schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3af For the lowest income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3ag For the second income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3ah For the middle income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3ai For the fourth income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3aj For the highest income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3ak For students with Disabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3ba Overall completion rate for public secondary schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3bb For males</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3bc For females</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3bd In urban schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3be In rural schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3bf For the lowest income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3bg For the second income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3bh For the middle income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3bi For the fourth income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3bj For the highest income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3bk For students with Disabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3ca Overall completion rate for public technical and vocational training program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3cb For males</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3cc For females</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3cd In urban schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3ce In rural schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3cf For the lowest income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3cg For the second income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3ch For the middle income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3ci For the fourth income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3cj For the highest income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3ck For students with Disabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3da Overall completion rate for public tertiary schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3db For males</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3dc For females</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3dd In urban schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3de In rural schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3df For the lowest income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3dg For the second income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3dh For the middle income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3di For the fourth income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3dj For the highest income quintile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.3dk For students with Disabilities</t>
   </si>
   <si>
     <t xml:space="preserve">3.3.3 Year</t>
@@ -1507,31 +1507,31 @@
     <t xml:space="preserve">4.3.2c Response</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.3a.a What percent of students received an overall passing score on the national assessment/exam (primary school)? Overall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3.3b.a What percent of students received a passing score on the national reading assessment/exam (primary school)? Overall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3.3c.a What percent of students received a passing score on the national mathematics assessment/exam (primary school)? Overall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3.3d.a What percent of students received an overall passing score on the national assessment/exam (secondary school)? Overall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3.3e.a What percent of students received a passing score on the national reading assessment/exam (secondary school)? Overall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3.3f.a What percent of students received a passing score on the national mathematics assessment/exam (secondary school)? Overall </t>
+    <t xml:space="preserve">4.3.3aa What percent of students received an overall passing score on the national assessment/exam (primary school)? Overall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.3ba What percent of students received a passing score on the national reading assessment/exam (primary school)? Overall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.3ca What percent of students received a passing score on the national mathematics assessment/exam (primary school)? Overall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.3da What percent of students received an overall passing score on the national assessment/exam (secondary school)? Overall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.3ea What percent of students received a passing score on the national reading assessment/exam (secondary school)? Overall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.3fa What percent of students received a passing score on the national mathematics assessment/exam (secondary school)? Overall </t>
   </si>
   <si>
     <t xml:space="preserve">4.3.3 Year</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.4a.a What is the youth literacy rate (ages 15-24)? Overall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3.4b.a What is the adult literacy rate (ages 24 +)? Overall</t>
+    <t xml:space="preserve">4.3.4aa What is the youth literacy rate (ages 15-24)? Overall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.4ba What is the adult literacy rate (ages 24 +)? Overall</t>
   </si>
   <si>
     <t xml:space="preserve">4.3.4 Year </t>
@@ -4689,12 +4689,12 @@
   </sheetPr>
   <dimension ref="A1:QO32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="OR5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="OR1" activeCellId="0" sqref="OR1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="DT32" activeCellId="0" sqref="DT32"/>
+      <selection pane="bottomRight" activeCell="OR4" activeCellId="0" sqref="OR4:OU4 OW4:OX4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -36961,7 +36961,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="2" sqref="OR4:OU4 OW4:OX4 B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37292,7 +37292,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="2" sqref="OR4:OU4 OW4:OX4 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37623,7 +37623,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="2" sqref="OR4:OU4 OW4:OX4 B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37954,7 +37954,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="2" sqref="OR4:OU4 OW4:OX4 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38285,7 +38285,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="2" sqref="OR4:OU4 OW4:OX4 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38616,7 +38616,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="2" sqref="OR4:OU4 OW4:OX4 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38947,7 +38947,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="2" sqref="OR4:OU4 OW4:OX4 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39278,7 +39278,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="2" sqref="OR4:OU4 OW4:OX4 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39609,7 +39609,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="2" sqref="OR4:OU4 OW4:OX4 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39940,7 +39940,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="2" sqref="OR4:OU4 OW4:OX4 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40270,12 +40270,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G28" activeCellId="0" sqref="G28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B4" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topRight" activeCell="G28" activeCellId="2" sqref="OR4:OU4 OW4:OX4 G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43162,7 +43160,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="2" sqref="OR4:OU4 OW4:OX4 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43493,7 +43491,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="2" sqref="OR4:OU4 OW4:OX4 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43824,7 +43822,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="2" sqref="OR4:OU4 OW4:OX4 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -44155,7 +44153,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="2" sqref="OR4:OU4 OW4:OX4 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -44486,7 +44484,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="2" sqref="OR4:OU4 OW4:OX4 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -44817,7 +44815,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="2" sqref="OR4:OU4 OW4:OX4 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -45148,7 +45146,7 @@
   <dimension ref="A1:V252"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K52" activeCellId="0" sqref="K52"/>
+      <selection pane="topLeft" activeCell="K52" activeCellId="2" sqref="OR4:OU4 OW4:OX4 K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -60928,7 +60926,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A50" activeCellId="0" sqref="A50"/>
+      <selection pane="bottomRight" activeCell="A50" activeCellId="2" sqref="OR4:OU4 OW4:OX4 A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -63636,7 +63634,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="2" sqref="OR4:OU4 OW4:OX4 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -63967,7 +63965,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="2" sqref="OR4:OU4 OW4:OX4 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -64298,7 +64296,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="2" sqref="OR4:OU4 OW4:OX4 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -64629,7 +64627,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="2" sqref="OR4:OU4 OW4:OX4 B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -64960,7 +64958,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="2" sqref="OR4:OU4 OW4:OX4 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
